--- a/biology/Zoologie/Asterophrys_turpicola/Asterophrys_turpicola.xlsx
+++ b/biology/Zoologie/Asterophrys_turpicola/Asterophrys_turpicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asterophrys turpicola est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asterophrys turpicola est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée. Elle se rencontre en territoire indonésien, y compris les îles Yapen, et en Papouasie-Nouvelle-Guinée mais uniquement dans la moitié Ouest de ce pays. Elle est présente jusqu'à 1 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée. Elle se rencontre en territoire indonésien, y compris les îles Yapen, et en Papouasie-Nouvelle-Guinée mais uniquement dans la moitié Ouest de ce pays. Elle est présente jusqu'à 1 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterophrys turpicola mesure jusqu'à 65 mm. Son dos est assez terne avec quelques taches brunes et noires.
 </t>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ahl, 1932 : Eine neue Eidechse und zwei neue Frösche von der Insel Jobi. Mitteilungen aus dem Zoologischen Museum in Berlin, vol. 17, p. 892-899.
 de Witte, 1930 "1929" : Note préliminaire sur les Batraciens recueillis aux Indes Orientales Néerlandaises par S.A.R. le Prince Leopold de Belgique. Annales de la Société Royale Zoologique de Belgique, vol. 60, p. 131-135.
